--- a/Assignment 3/tables/rand_var.xlsx
+++ b/Assignment 3/tables/rand_var.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhay/Latex/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A1831FA-27ED-4F43-80AE-00C12CB31A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5FEDFF-DC71-514F-8136-34F4D65C473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1980" windowWidth="26840" windowHeight="15440" xr2:uid="{A0691FA3-9B81-3E40-92AF-DA047DF264AA}"/>
+    <workbookView xWindow="1560" yWindow="1000" windowWidth="26840" windowHeight="15440" xr2:uid="{A0691FA3-9B81-3E40-92AF-DA047DF264AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Weights</t>
   </si>
   <si>
-    <t>31 -35</t>
-  </si>
-  <si>
     <t>36 - 40</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>31 - 35</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,12 +446,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>

--- a/Assignment 3/tables/rand_var.xlsx
+++ b/Assignment 3/tables/rand_var.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhay/Latex/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5FEDFF-DC71-514F-8136-34F4D65C473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66134D41-082D-F246-9E8A-F86348ED5979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1000" windowWidth="26840" windowHeight="15440" xr2:uid="{A0691FA3-9B81-3E40-92AF-DA047DF264AA}"/>
+    <workbookView xWindow="580" yWindow="1780" windowWidth="26840" windowHeight="15440" xr2:uid="{A0691FA3-9B81-3E40-92AF-DA047DF264AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,39 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Weights</t>
+    <t>Weights (Lower class bound)</t>
   </si>
   <si>
-    <t>36 - 40</t>
+    <t>Weights (Upper class bound)</t>
   </si>
   <si>
-    <t>41 - 45</t>
-  </si>
-  <si>
-    <t>46 - 50</t>
-  </si>
-  <si>
-    <t>51 - 55</t>
-  </si>
-  <si>
-    <t>56 - 60</t>
-  </si>
-  <si>
-    <t>61 - 65</t>
-  </si>
-  <si>
-    <t>66 - 70</t>
-  </si>
-  <si>
-    <t>71 - 75</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>31 - 35</t>
+    <t>X (Random Variable)</t>
   </si>
 </sst>
 </file>
@@ -110,14 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,91 +406,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8297A35E-9E44-314C-BD6B-DD05E887EE86}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A2:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
+      <c r="B2" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>66</v>
+      </c>
+      <c r="J2">
+        <v>71</v>
+      </c>
+      <c r="K2">
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3">
+        <v>65</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+      <c r="J3">
+        <v>75</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="F4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="G4">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="H4">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="I4">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="J4">
         <v>9</v>
       </c>
     </row>
